--- a/common/Scene.xlsx
+++ b/common/Scene.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>序号</t>
   </si>
@@ -90,6 +90,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>scene_path</t>
     </r>
     <r>
@@ -117,37 +124,97 @@
     <t>征收-庭院</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\levy\levy_1_scene_bg_1.png</t>
+    <t>Assets\mnRes\Images\levy\levy_1_scene_bg_1.png</t>
   </si>
   <si>
     <t>征收-库房</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\levy\levy_1_scene_bg_2.png</t>
+    <t>Assets\mnRes\Images\levy\levy_1_scene_bg_2.png</t>
   </si>
   <si>
     <t>征收-水井</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\levy\levy_1_scene_bg_3.png</t>
+    <t>Assets\mnRes\Images\levy\levy_1_scene_bg_3.png</t>
   </si>
   <si>
     <t>征收-走廊</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\levy\levy_1_scene_bg_4.png</t>
+    <t>Assets\mnRes\Images\levy\levy_1_scene_bg_4.png</t>
   </si>
   <si>
     <t>征收-花园</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\levy\levy_1_scene_bg_5.png</t>
+    <t>Assets\mnRes\Images\levy\levy_1_scene_bg_5.png</t>
   </si>
   <si>
     <t>个人信息-背景</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\player_info\player_info_1_scene_bg.jpg</t>
+    <t>Assets\mnRes\Images\player_info\player_info_1_scene_bg.jpg</t>
+  </si>
+  <si>
+    <t>我的房间-等级1</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\room_1_scene_bg.jpg</t>
+  </si>
+  <si>
+    <t>卷首-祠堂</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_1.jpg</t>
+  </si>
+  <si>
+    <t>卷首-前厅</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_2.jpg</t>
+  </si>
+  <si>
+    <t>卷首-夜晚卧室</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_3.jpg</t>
+  </si>
+  <si>
+    <t>卷首-雪中树林</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_4.jpg</t>
+  </si>
+  <si>
+    <t>卷首-大门前</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_5.jpg</t>
+  </si>
+  <si>
+    <t>卷首-祠堂殴打</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_6.jpg</t>
+  </si>
+  <si>
+    <t>卷首-窗前捂嘴</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_7.jpg</t>
+  </si>
+  <si>
+    <t>卷首-门前抱婴</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_8.jpg</t>
+  </si>
+  <si>
+    <t>夜晚宅院</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\home_scene_bg_1.jpg</t>
   </si>
 </sst>
 </file>
@@ -155,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -177,6 +244,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,9 +259,115 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,122 +379,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,7 +401,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,181 +422,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,17 +625,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,21 +649,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -610,6 +656,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,21 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -661,6 +707,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -669,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +742,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,13 +1201,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="89.125" customWidth="1"/>
@@ -1163,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="33.75" spans="1:3">
+    <row r="2" ht="17.25" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1238,6 +1299,116 @@
       </c>
       <c r="C8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/common/Scene.xlsx
+++ b/common/Scene.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>序号</t>
   </si>
@@ -216,15 +216,51 @@
   <si>
     <t>Assets\mnRes\Images\scene\home_scene_bg_1.jpg</t>
   </si>
+  <si>
+    <t>我的房间-夜晚</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\room_1_scene_bg_2.jpg</t>
+  </si>
+  <si>
+    <t>知交-裴邈-凉亭</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\scene_friend_scene_bg_1.jpg</t>
+  </si>
+  <si>
+    <t>知交-李润-书房</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\scene_friend_scene_bg_2.jpg</t>
+  </si>
+  <si>
+    <t>知交-绿瑶-庭院</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\scene_friend_scene_bg_3.jpg</t>
+  </si>
+  <si>
+    <t>知交-蔺飒-望楼</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\scene_friend_scene_bg_4.jpg</t>
+  </si>
+  <si>
+    <t>知交-李璨昭-竹园</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\scene\scene_friend_scene_bg_5.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -244,14 +280,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,115 +415,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,114 +458,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -542,6 +590,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -554,49 +608,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,17 +661,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,42 +674,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,7 +698,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,6 +732,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,10 +1237,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1411,6 +1447,72 @@
         <v>37</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/common/Scene.xlsx
+++ b/common/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,133 +124,133 @@
     <t>征收-庭院</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\levy\levy_1_scene_bg_1.png</t>
+    <t>Assets/mnRes/Images/levy/levy_1_scene_bg_1.png</t>
   </si>
   <si>
     <t>征收-库房</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\levy\levy_1_scene_bg_2.png</t>
+    <t>Assets/mnRes/Images/levy/levy_1_scene_bg_2.png</t>
   </si>
   <si>
     <t>征收-水井</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\levy\levy_1_scene_bg_3.png</t>
+    <t>Assets/mnRes/Images/levy/levy_1_scene_bg_3.png</t>
   </si>
   <si>
     <t>征收-走廊</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\levy\levy_1_scene_bg_4.png</t>
+    <t>Assets/mnRes/Images/levy/levy_1_scene_bg_4.png</t>
   </si>
   <si>
     <t>征收-花园</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\levy\levy_1_scene_bg_5.png</t>
+    <t>Assets/mnRes/Images/levy/levy_1_scene_bg_5.png</t>
   </si>
   <si>
     <t>个人信息-背景</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\player_info\player_info_1_scene_bg.jpg</t>
+    <t>Assets/mnRes/Images/player_info/player_info_1_scene_bg.jpg</t>
   </si>
   <si>
     <t>我的房间-等级1</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\room_1_scene_bg.jpg</t>
+    <t>Assets/mnRes/Images/scene/room_1_scene_bg.jpg</t>
   </si>
   <si>
     <t>卷首-祠堂</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_1.jpg</t>
+    <t>Assets/mnRes/Images/scene/scene_story_scene_bg_1.jpg</t>
   </si>
   <si>
     <t>卷首-前厅</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_2.jpg</t>
+    <t>Assets/mnRes/Images/scene/scene_story_scene_bg_2.jpg</t>
   </si>
   <si>
     <t>卷首-夜晚卧室</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_3.jpg</t>
+    <t>Assets/mnRes/Images/scene/scene_story_scene_bg_3.jpg</t>
   </si>
   <si>
     <t>卷首-雪中树林</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_4.jpg</t>
+    <t>Assets/mnRes/Images/scene/scene_story_scene_bg_4.jpg</t>
   </si>
   <si>
     <t>卷首-大门前</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_5.jpg</t>
+    <t>Assets/mnRes/Images/scene/scene_story_scene_bg_5.jpg</t>
   </si>
   <si>
     <t>卷首-祠堂殴打</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_6.jpg</t>
+    <t>Assets/mnRes/Images/scene/scene_story_scene_bg_6.jpg</t>
   </si>
   <si>
     <t>卷首-窗前捂嘴</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_7.jpg</t>
+    <t>Assets/mnRes/Images/scene/scene_story_scene_bg_7.jpg</t>
   </si>
   <si>
     <t>卷首-门前抱婴</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\scene_story_scene_bg_8.jpg</t>
+    <t>Assets/mnRes/Images/scene/scene_story_scene_bg_8.jpg</t>
   </si>
   <si>
     <t>夜晚宅院</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\home_scene_bg_1.jpg</t>
+    <t>Assets/mnRes/Images/scene/home_scene_bg_1.jpg</t>
   </si>
   <si>
     <t>我的房间-夜晚</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\room_1_scene_bg_2.jpg</t>
+    <t>Assets/mnRes/Images/scene/room_1_scene_bg_2.jpg</t>
   </si>
   <si>
     <t>知交-裴邈-凉亭</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\scene_friend_scene_bg_1.jpg</t>
+    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_1.jpg</t>
   </si>
   <si>
     <t>知交-李润-书房</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\scene_friend_scene_bg_2.jpg</t>
+    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_2.jpg</t>
   </si>
   <si>
     <t>知交-绿瑶-庭院</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\scene_friend_scene_bg_3.jpg</t>
+    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_3.jpg</t>
   </si>
   <si>
     <t>知交-蔺飒-望楼</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\scene_friend_scene_bg_4.jpg</t>
+    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_4.jpg</t>
   </si>
   <si>
     <t>知交-李璨昭-竹园</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\scene\scene_friend_scene_bg_5.jpg</t>
+    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_5.jpg</t>
   </si>
 </sst>
 </file>
@@ -258,10 +258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -280,7 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,44 +288,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,14 +302,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,15 +318,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,47 +378,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,181 +458,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,7 +674,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,6 +728,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -717,47 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
